--- a/SectionsFHIRCorps/ig/StructureDefinition-fr-composition-document.xlsx
+++ b/SectionsFHIRCorps/ig/StructureDefinition-fr-composition-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:35:31+00:00</t>
+    <t>2026-01-19T14:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2525,7 +2525,7 @@
   </si>
   <si>
     <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
-cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}comp-4:Une section ne peut pas contenir à la fois des entrées et des sous-sections. {not(exists(f:entry) and exists(f:section))}</t>
   </si>
   <si>
     <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>

--- a/SectionsFHIRCorps/ig/StructureDefinition-fr-composition-document.xlsx
+++ b/SectionsFHIRCorps/ig/StructureDefinition-fr-composition-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:02:43+00:00</t>
+    <t>2026-01-19T14:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
